--- a/scheds.xlsx
+++ b/scheds.xlsx
@@ -11,6 +11,92 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+  <si>
+    <t>07:00 AM</t>
+  </si>
+  <si>
+    <t>07:30 AM</t>
+  </si>
+  <si>
+    <t>08:00 AM</t>
+  </si>
+  <si>
+    <t>08:30 AM</t>
+  </si>
+  <si>
+    <t>09:00 AM</t>
+  </si>
+  <si>
+    <t>09:30 AM</t>
+  </si>
+  <si>
+    <t>10:00 AM</t>
+  </si>
+  <si>
+    <t>10:30 AM</t>
+  </si>
+  <si>
+    <t>11:00 AM</t>
+  </si>
+  <si>
+    <t>11:30 AM</t>
+  </si>
+  <si>
+    <t>12:00 PM</t>
+  </si>
+  <si>
+    <t>12:30 PM</t>
+  </si>
+  <si>
+    <t>01:00 PM</t>
+  </si>
+  <si>
+    <t>01:30 PM</t>
+  </si>
+  <si>
+    <t>02:00 PM</t>
+  </si>
+  <si>
+    <t>02:30 PM</t>
+  </si>
+  <si>
+    <t>03:00 PM</t>
+  </si>
+  <si>
+    <t>03:30 PM</t>
+  </si>
+  <si>
+    <t>04:00 PM</t>
+  </si>
+  <si>
+    <t>04:30 PM</t>
+  </si>
+  <si>
+    <t>05:00 PM</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -340,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B4:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -348,7 +434,133 @@
   <cols>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="2:7">
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/scheds.xlsx
+++ b/scheds.xlsx
@@ -101,8 +101,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -130,8 +138,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,137 +440,138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:G25"/>
+  <dimension ref="B4:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="8" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:7">
-      <c r="B4" t="s">
+    <row r="4" spans="2:8">
+      <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
-      <c r="B5" t="s">
+    <row r="5" spans="2:8">
+      <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
-      <c r="B6" t="s">
+    <row r="6" spans="2:8">
+      <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
-      <c r="B7" t="s">
+    <row r="7" spans="2:8">
+      <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
-      <c r="B8" t="s">
+    <row r="8" spans="2:8">
+      <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
-      <c r="B9" t="s">
+    <row r="9" spans="2:8">
+      <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
-      <c r="B10" t="s">
+    <row r="10" spans="2:8">
+      <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
-      <c r="B11" t="s">
+    <row r="11" spans="2:8">
+      <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
-      <c r="B12" t="s">
+    <row r="12" spans="2:8">
+      <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
-      <c r="B13" t="s">
+    <row r="13" spans="2:8">
+      <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="2:7">
-      <c r="B14" t="s">
+    <row r="14" spans="2:8">
+      <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="2:7">
-      <c r="B15" t="s">
+    <row r="15" spans="2:8">
+      <c r="B15" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:7">
-      <c r="B16" t="s">
+    <row r="16" spans="2:8">
+      <c r="B16" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/scheds.xlsx
+++ b/scheds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>07:00 AM</t>
   </si>
@@ -95,6 +95,12 @@
   </si>
   <si>
     <t>Saturday</t>
+  </si>
+  <si>
+    <t>DESALGO</t>
+  </si>
+  <si>
+    <t>9:30 AM to 11:30 AM</t>
   </si>
 </sst>
 </file>
@@ -118,12 +124,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFGOLD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -138,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -146,6 +158,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,21 +487,29 @@
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C5" s="3"/>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C7" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="2" t="s">

--- a/scheds.xlsx
+++ b/scheds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>07:00 AM</t>
   </si>
@@ -97,10 +97,22 @@
     <t>Saturday</t>
   </si>
   <si>
-    <t>DESALGO</t>
-  </si>
-  <si>
-    <t>9:30 AM to 11:30 AM</t>
+    <t>Modeling and Simulation</t>
+  </si>
+  <si>
+    <t>09:30 AM - 11:30 AM</t>
+  </si>
+  <si>
+    <t>Automata Theory</t>
+  </si>
+  <si>
+    <t>01:00 PM - 03:00 PM</t>
+  </si>
+  <si>
+    <t>Physical Education 4</t>
+  </si>
+  <si>
+    <t>03:00 PM - 05:00 PM</t>
   </si>
 </sst>
 </file>
@@ -124,7 +136,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,7 +145,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFGOLD"/>
+        <fgColor rgb="FF70AD47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C6E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED7D31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -150,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -159,6 +183,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,31 +535,44 @@
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C9" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="10" spans="2:8">
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C10" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C12" s="5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="2:8">
       <c r="B13" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="2:8">

--- a/scheds.xlsx
+++ b/scheds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
   <si>
     <t>07:00 AM</t>
   </si>
@@ -113,6 +113,15 @@
   </si>
   <si>
     <t>03:00 PM - 05:00 PM</t>
+  </si>
+  <si>
+    <t>Operating System</t>
+  </si>
+  <si>
+    <t>Database Management 2</t>
+  </si>
+  <si>
+    <t>Web Programming</t>
   </si>
 </sst>
 </file>
@@ -136,7 +145,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,13 +160,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF4B084"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFB4C6E7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFE699"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFED7D31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -174,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -185,6 +212,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,67 +543,78 @@
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="3"/>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="10" spans="2:8">
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>31</v>
+      <c r="C12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="2:8">
       <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="2:8">
       <c r="B14" s="2" t="s">
@@ -590,47 +631,111 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:7">
       <c r="B17" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="2:2">
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="2:7">
       <c r="B18" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="2:2">
+      <c r="C18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
       <c r="B19" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="2:2">
+      <c r="C19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
       <c r="B20" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="2:2">
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="2:7">
       <c r="B21" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="2:2">
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="2:7">
       <c r="B22" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
+      <c r="C22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
       <c r="B23" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="2:2">
+      <c r="C23" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
       <c r="B24" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="2:2">
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="2:7">
       <c r="B25" s="2" t="s">
         <v>20</v>
       </c>

--- a/scheds.xlsx
+++ b/scheds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>07:00 AM</t>
   </si>
@@ -79,6 +79,12 @@
     <t>05:00 PM</t>
   </si>
   <si>
+    <t>05:30 PM</t>
+  </si>
+  <si>
+    <t>06:00 PM</t>
+  </si>
+  <si>
     <t>Monday</t>
   </si>
   <si>
@@ -97,31 +103,34 @@
     <t>Saturday</t>
   </si>
   <si>
-    <t>Modeling and Simulation</t>
+    <t>DATAMA2</t>
   </si>
   <si>
     <t>09:30 AM - 11:30 AM</t>
   </si>
   <si>
-    <t>Automata Theory</t>
+    <t>OPESYST</t>
   </si>
   <si>
     <t>01:00 PM - 03:00 PM</t>
   </si>
   <si>
-    <t>Physical Education 4</t>
-  </si>
-  <si>
-    <t>03:00 PM - 05:00 PM</t>
-  </si>
-  <si>
-    <t>Operating System</t>
-  </si>
-  <si>
-    <t>Database Management 2</t>
-  </si>
-  <si>
-    <t>Web Programming</t>
+    <t>MOBAPPL</t>
+  </si>
+  <si>
+    <t>07:30 AM - 09:30 AM</t>
+  </si>
+  <si>
+    <t>COMPAIS</t>
+  </si>
+  <si>
+    <t>WEBPROG</t>
+  </si>
+  <si>
+    <t>PEDUFOR</t>
+  </si>
+  <si>
+    <t>05:00 PM - 05:40 PM</t>
   </si>
 </sst>
 </file>
@@ -154,6 +163,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFED7D31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF70AD47"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -173,12 +188,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFE699"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFED7D31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:H25"/>
+  <dimension ref="B4:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -521,22 +530,22 @@
   <sheetData>
     <row r="4" spans="2:8">
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:8">
@@ -548,78 +557,98 @@
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="D6" s="3"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="D9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="2:8">
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>33</v>
+      <c r="C11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>28</v>
+      <c r="C12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="2:8">
       <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="2:8">
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="5"/>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" s="2" t="s">
@@ -635,109 +664,98 @@
       <c r="B17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="7"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>34</v>
+      <c r="C18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>30</v>
+      <c r="C19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="7"/>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="8"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="7"/>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="8"/>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/scheds.xlsx
+++ b/scheds.xlsx
@@ -216,7 +216,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>

--- a/scheds.xlsx
+++ b/scheds.xlsx
@@ -14,7 +14,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="82">
+  <si>
+    <t>SS191</t>
+  </si>
+  <si>
+    <t>Committee Member for Finance</t>
+  </si>
+  <si>
+    <t>Jed Tristan Tinio, Jan Red Esguerra</t>
+  </si>
+  <si>
+    <t>Committee Member for Membership</t>
+  </si>
+  <si>
+    <t>Sherwin Ansay, Christian Gloria</t>
+  </si>
+  <si>
+    <t>Committee Member for Information and Communication</t>
+  </si>
+  <si>
+    <t>Maria Yuca Beltran, Christian Paul Duria, Jose Gabrielle Rivera</t>
+  </si>
+  <si>
+    <t>Committee Member for Marketing and Promotions</t>
+  </si>
+  <si>
+    <t>Steven Da-anton, Aldwin Vergara</t>
+  </si>
   <si>
     <t>07:00 AM</t>
   </si>
@@ -103,16 +130,49 @@
     <t>Saturday</t>
   </si>
   <si>
+    <t>MODESIM</t>
+  </si>
+  <si>
+    <t>09:30 AM - 11:30 AM</t>
+  </si>
+  <si>
+    <t>AUTOMAT</t>
+  </si>
+  <si>
+    <t>01:00 PM - 03:00 PM</t>
+  </si>
+  <si>
+    <t>PEDUFOR</t>
+  </si>
+  <si>
+    <t>03:00 PM - 05:00 PM</t>
+  </si>
+  <si>
+    <t>OPESYST</t>
+  </si>
+  <si>
     <t>DATAMA2</t>
   </si>
   <si>
-    <t>09:30 AM - 11:30 AM</t>
-  </si>
-  <si>
-    <t>OPESYST</t>
-  </si>
-  <si>
-    <t>01:00 PM - 03:00 PM</t>
+    <t>WEBPROG</t>
+  </si>
+  <si>
+    <t>MI191</t>
+  </si>
+  <si>
+    <t>Committee Member for Logistics</t>
+  </si>
+  <si>
+    <t>Ken Angelo Carangan</t>
+  </si>
+  <si>
+    <t>Committee Member for Events</t>
+  </si>
+  <si>
+    <t>Domer Glysdi Toribio</t>
+  </si>
+  <si>
+    <t>John Christopher Langca-on, Timothy Ckhille Velasco</t>
   </si>
   <si>
     <t>MOBAPPL</t>
@@ -124,13 +184,82 @@
     <t>COMPAIS</t>
   </si>
   <si>
-    <t>WEBPROG</t>
-  </si>
-  <si>
-    <t>PEDUFOR</t>
-  </si>
-  <si>
     <t>05:00 PM - 05:40 PM</t>
+  </si>
+  <si>
+    <t>MI192</t>
+  </si>
+  <si>
+    <t>Chesca Janine Odango, Allen Paul Talosig</t>
+  </si>
+  <si>
+    <t>NS191</t>
+  </si>
+  <si>
+    <t>Kim Brian Lao</t>
+  </si>
+  <si>
+    <t>DNETCOM</t>
+  </si>
+  <si>
+    <t>EMC191</t>
+  </si>
+  <si>
+    <t>Niel Angelo Dela Cruz</t>
+  </si>
+  <si>
+    <t>2DANIMA</t>
+  </si>
+  <si>
+    <t>GMEPHYS</t>
+  </si>
+  <si>
+    <t>COMPORG</t>
+  </si>
+  <si>
+    <t>APPLDEV</t>
+  </si>
+  <si>
+    <t>DESPROD</t>
+  </si>
+  <si>
+    <t>SF191</t>
+  </si>
+  <si>
+    <t>Kerwin Ejorango</t>
+  </si>
+  <si>
+    <t>Jell Andrey Ferrer</t>
+  </si>
+  <si>
+    <t>SS181</t>
+  </si>
+  <si>
+    <t>Adrian Fortuno</t>
+  </si>
+  <si>
+    <t>Zinedine Sabroso</t>
+  </si>
+  <si>
+    <t>PEMBEDS</t>
+  </si>
+  <si>
+    <t>BUSINLA</t>
+  </si>
+  <si>
+    <t>ECONTAX</t>
+  </si>
+  <si>
+    <t>SCSPROJ</t>
+  </si>
+  <si>
+    <t>01:00 AM - 03:00 AM</t>
+  </si>
+  <si>
+    <t>AJ Antonio</t>
+  </si>
+  <si>
+    <t>Aaron Gardon Jr., Randreb Bance</t>
   </si>
 </sst>
 </file>
@@ -154,18 +283,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFED7D31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -193,7 +316,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFED7D31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4BACC6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -210,11 +345,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -224,6 +360,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,7 +655,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:H27"/>
+  <dimension ref="B4:H242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,233 +666,2006 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:8">
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="C24" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="C25" s="6"/>
+      <c r="D25" s="7"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="C26" s="8"/>
+      <c r="D26" s="9"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="C27" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="C28" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="C29" s="8"/>
+      <c r="D29" s="9"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="9"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="C37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="C38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="C40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="E40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="5"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="5"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="5"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="7"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="7"/>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7">
+      <c r="B55" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="B56" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="7"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="7"/>
+    </row>
+    <row r="57" spans="2:7">
+      <c r="B57" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="7"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="7"/>
+    </row>
+    <row r="58" spans="2:7">
+      <c r="B58" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="B59" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7">
+      <c r="B60" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7">
+      <c r="B61" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F61" s="9"/>
+    </row>
+    <row r="62" spans="2:7">
+      <c r="B62" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7">
+      <c r="B63" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8">
+      <c r="B67" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E67" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8">
+      <c r="C69" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="2" t="s">
+      <c r="E69" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8">
+      <c r="B70" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8">
+      <c r="B71" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="4"/>
+      <c r="D71" s="8"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="8"/>
+    </row>
+    <row r="72" spans="2:8">
+      <c r="B72" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="B73" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8">
+      <c r="B74" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" s="4"/>
+      <c r="D74" s="8"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="8"/>
+    </row>
+    <row r="75" spans="2:8">
+      <c r="B75" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" s="4"/>
+      <c r="D75" s="5"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="5"/>
+    </row>
+    <row r="76" spans="2:8">
+      <c r="B76" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8">
+      <c r="B77" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8">
+      <c r="B78" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" s="5"/>
+      <c r="G78" s="5"/>
+    </row>
+    <row r="79" spans="2:8">
+      <c r="B79" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" s="5"/>
+      <c r="G79" s="5"/>
+    </row>
+    <row r="80" spans="2:8">
+      <c r="B80" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7">
+      <c r="B81" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7">
+      <c r="B82" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C82" s="6"/>
+      <c r="D82" s="7"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="7"/>
+    </row>
+    <row r="83" spans="2:7">
+      <c r="B83" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7">
+      <c r="B84" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7">
+      <c r="B85" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C85" s="6"/>
+      <c r="D85" s="7"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="7"/>
+    </row>
+    <row r="86" spans="2:7">
+      <c r="B86" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C86" s="6"/>
+      <c r="D86" s="7"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="7"/>
+    </row>
+    <row r="87" spans="2:7">
+      <c r="B87" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7">
+      <c r="B88" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7">
+      <c r="B89" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7">
+      <c r="B90" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F90" s="9"/>
+    </row>
+    <row r="91" spans="2:7">
+      <c r="B91" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7">
+      <c r="B92" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7">
+      <c r="B96" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E96" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8">
+      <c r="C98" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8">
+      <c r="B99" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8">
+      <c r="B100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C100" s="4"/>
+      <c r="F100" s="4"/>
+    </row>
+    <row r="101" spans="2:8">
+      <c r="B101" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8">
+      <c r="B102" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8">
+      <c r="B103" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C103" s="4"/>
+      <c r="F103" s="4"/>
+    </row>
+    <row r="104" spans="2:8">
+      <c r="B104" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C104" s="6"/>
+      <c r="D104" s="7"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="7"/>
+    </row>
+    <row r="105" spans="2:8">
+      <c r="B105" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8">
+      <c r="B106" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8">
+      <c r="B107" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C107" s="6"/>
+      <c r="D107" s="7"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="7"/>
+    </row>
+    <row r="108" spans="2:8">
+      <c r="B108" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C108" s="6"/>
+      <c r="D108" s="7"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="7"/>
+    </row>
+    <row r="109" spans="2:8">
+      <c r="B109" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8">
+      <c r="B110" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8">
+      <c r="B111" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C111" s="8"/>
+      <c r="D111" s="9"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="9"/>
+    </row>
+    <row r="112" spans="2:8">
+      <c r="B112" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F112" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G112" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8">
+      <c r="B113" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F113" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G113" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8">
+      <c r="B114" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C114" s="8"/>
+      <c r="D114" s="9"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="9"/>
+    </row>
+    <row r="115" spans="2:8">
+      <c r="B115" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C115" s="5"/>
+      <c r="D115" s="10"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="10"/>
+    </row>
+    <row r="116" spans="2:8">
+      <c r="B116" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D116" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G116" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8">
+      <c r="B117" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D117" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G117" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8">
+      <c r="B118" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C118" s="5"/>
+      <c r="D118" s="10"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="10"/>
+    </row>
+    <row r="119" spans="2:8">
+      <c r="B119" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C119" s="5"/>
+      <c r="D119" s="10"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="10"/>
+    </row>
+    <row r="120" spans="2:8">
+      <c r="B120" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8">
+      <c r="B121" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8">
+      <c r="B125" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E125" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8">
+      <c r="C127" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8">
+      <c r="B128" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7">
+      <c r="B129" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C129" s="4"/>
+      <c r="D129" s="5"/>
+      <c r="F129" s="4"/>
+      <c r="G129" s="5"/>
+    </row>
+    <row r="130" spans="2:7">
+      <c r="B130" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G130" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7">
+      <c r="B131" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G131" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7">
+      <c r="B132" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C132" s="4"/>
+      <c r="D132" s="5"/>
+      <c r="F132" s="4"/>
+      <c r="G132" s="5"/>
+    </row>
+    <row r="133" spans="2:7">
+      <c r="B133" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C133" s="6"/>
+      <c r="D133" s="7"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="7"/>
+    </row>
+    <row r="134" spans="2:7">
+      <c r="B134" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D134" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F134" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G134" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7">
+      <c r="B135" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F135" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G135" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7">
+      <c r="B136" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C136" s="6"/>
+      <c r="D136" s="7"/>
+      <c r="F136" s="6"/>
+      <c r="G136" s="7"/>
+    </row>
+    <row r="137" spans="2:7">
+      <c r="B137" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C137" s="6"/>
+      <c r="D137" s="7"/>
+      <c r="F137" s="6"/>
+      <c r="G137" s="7"/>
+    </row>
+    <row r="138" spans="2:7">
+      <c r="B138" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7">
+      <c r="B139" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7">
+      <c r="B140" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C140" s="8"/>
+      <c r="F140" s="8"/>
+    </row>
+    <row r="141" spans="2:7">
+      <c r="B141" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F141" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7">
+      <c r="B142" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F142" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7">
+      <c r="B143" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C143" s="8"/>
+      <c r="F143" s="8"/>
+    </row>
+    <row r="144" spans="2:7">
+      <c r="B144" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C144" s="8"/>
+      <c r="F144" s="8"/>
+    </row>
+    <row r="145" spans="2:8">
+      <c r="B145" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="146" spans="2:8">
+      <c r="B146" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="147" spans="2:8">
+      <c r="B147" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="148" spans="2:8">
+      <c r="B148" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D148" s="9"/>
+    </row>
+    <row r="149" spans="2:8">
+      <c r="B149" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D149" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="150" spans="2:8">
+      <c r="B150" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D150" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="154" spans="2:8">
+      <c r="B154" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E154" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="155" spans="2:8">
+      <c r="C155" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E155" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="157" spans="2:8">
+      <c r="C157" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="158" spans="2:8">
+      <c r="B158" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159" spans="2:8">
+      <c r="B159" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C159" s="4"/>
+      <c r="F159" s="4"/>
+    </row>
+    <row r="160" spans="2:8">
+      <c r="B160" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="161" spans="2:7">
+      <c r="B161" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="162" spans="2:7">
+      <c r="B162" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C162" s="4"/>
+      <c r="F162" s="4"/>
+    </row>
+    <row r="163" spans="2:7">
+      <c r="B163" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C163" s="6"/>
+      <c r="D163" s="7"/>
+      <c r="F163" s="6"/>
+      <c r="G163" s="7"/>
+    </row>
+    <row r="164" spans="2:7">
+      <c r="B164" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D164" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F164" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G164" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="165" spans="2:7">
+      <c r="B165" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D165" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F165" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G165" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="166" spans="2:7">
+      <c r="B166" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C166" s="6"/>
+      <c r="D166" s="7"/>
+      <c r="F166" s="6"/>
+      <c r="G166" s="7"/>
+    </row>
+    <row r="167" spans="2:7">
+      <c r="B167" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C167" s="6"/>
+      <c r="D167" s="7"/>
+      <c r="F167" s="6"/>
+      <c r="G167" s="7"/>
+    </row>
+    <row r="168" spans="2:7">
+      <c r="B168" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="169" spans="2:7">
+      <c r="B169" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="170" spans="2:7">
+      <c r="B170" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C170" s="8"/>
+      <c r="D170" s="9"/>
+      <c r="F170" s="8"/>
+      <c r="G170" s="9"/>
+    </row>
+    <row r="171" spans="2:7">
+      <c r="B171" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D171" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F171" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G171" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="172" spans="2:7">
+      <c r="B172" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C172" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D172" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F172" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G172" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="173" spans="2:7">
+      <c r="B173" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C173" s="8"/>
+      <c r="D173" s="9"/>
+      <c r="F173" s="8"/>
+      <c r="G173" s="9"/>
+    </row>
+    <row r="174" spans="2:7">
+      <c r="B174" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C174" s="5"/>
+      <c r="D174" s="10"/>
+      <c r="F174" s="5"/>
+      <c r="G174" s="10"/>
+    </row>
+    <row r="175" spans="2:7">
+      <c r="B175" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D175" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F175" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G175" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="176" spans="2:7">
+      <c r="B176" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D176" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F176" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G176" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="177" spans="2:8">
+      <c r="B177" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C177" s="5"/>
+      <c r="D177" s="10"/>
+      <c r="F177" s="5"/>
+      <c r="G177" s="10"/>
+    </row>
+    <row r="178" spans="2:8">
+      <c r="B178" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C178" s="5"/>
+      <c r="D178" s="10"/>
+      <c r="F178" s="5"/>
+      <c r="G178" s="10"/>
+    </row>
+    <row r="179" spans="2:8">
+      <c r="B179" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="180" spans="2:8">
+      <c r="B180" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="184" spans="2:8">
+      <c r="B184" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E184" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="185" spans="2:8">
+      <c r="C185" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E185" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="187" spans="2:8">
+      <c r="C187" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E187" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="F187" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H187" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="188" spans="2:8">
+      <c r="B188" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189" spans="2:8">
+      <c r="B189" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="2:8">
+      <c r="B190" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="191" spans="2:8">
+      <c r="B191" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="192" spans="2:8">
+      <c r="B192" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="193" spans="2:7">
+      <c r="B193" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C193" s="4"/>
+      <c r="F193" s="4"/>
+    </row>
+    <row r="194" spans="2:7">
+      <c r="B194" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F194" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="195" spans="2:7">
+      <c r="B195" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F195" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="196" spans="2:7">
+      <c r="B196" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C196" s="4"/>
+      <c r="F196" s="4"/>
+    </row>
+    <row r="197" spans="2:7">
+      <c r="B197" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C197" s="4"/>
+      <c r="F197" s="4"/>
+    </row>
+    <row r="198" spans="2:7">
+      <c r="B198" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="199" spans="2:7">
+      <c r="B199" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="200" spans="2:7">
+      <c r="B200" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C200" s="6"/>
+      <c r="F200" s="6"/>
+    </row>
+    <row r="201" spans="2:7">
+      <c r="B201" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F201" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="202" spans="2:7">
+      <c r="B202" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F202" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="203" spans="2:7">
+      <c r="B203" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C203" s="6"/>
+      <c r="F203" s="6"/>
+    </row>
+    <row r="204" spans="2:7">
+      <c r="B204" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C204" s="6"/>
+      <c r="D204" s="8"/>
+      <c r="F204" s="6"/>
+      <c r="G204" s="8"/>
+    </row>
+    <row r="205" spans="2:7">
+      <c r="B205" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D205" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G205" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="206" spans="2:7">
+      <c r="B206" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D206" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G206" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="207" spans="2:7">
+      <c r="B207" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D207" s="8"/>
+      <c r="G207" s="8"/>
+    </row>
+    <row r="208" spans="2:7">
+      <c r="B208" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D208" s="8"/>
+      <c r="G208" s="8"/>
+    </row>
+    <row r="209" spans="2:8">
+      <c r="B209" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="210" spans="2:8">
+      <c r="B210" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D210" s="5"/>
+      <c r="G210" s="5"/>
+    </row>
+    <row r="211" spans="2:8">
+      <c r="D211" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G211" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="212" spans="2:8">
+      <c r="D212" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G212" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="214" spans="2:8">
+      <c r="B214" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E214" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="215" spans="2:8">
+      <c r="C215" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E215" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="217" spans="2:8">
+      <c r="C217" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E217" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="F217" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G217" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H217" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="218" spans="2:8">
+      <c r="B218" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="219" spans="2:8">
+      <c r="B219" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220" spans="2:8">
+      <c r="B220" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="221" spans="2:8">
+      <c r="B221" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="222" spans="2:8">
+      <c r="B222" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="223" spans="2:8">
+      <c r="B223" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C223" s="4"/>
+      <c r="F223" s="4"/>
+    </row>
+    <row r="224" spans="2:8">
+      <c r="B224" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F224" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="225" spans="2:7">
+      <c r="B225" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F225" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="226" spans="2:7">
+      <c r="B226" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C226" s="4"/>
+      <c r="F226" s="4"/>
+    </row>
+    <row r="227" spans="2:7">
+      <c r="B227" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C227" s="4"/>
+      <c r="F227" s="4"/>
+    </row>
+    <row r="228" spans="2:7">
+      <c r="B228" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="229" spans="2:7">
+      <c r="B229" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="230" spans="2:7">
+      <c r="B230" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C230" s="6"/>
+      <c r="F230" s="6"/>
+    </row>
+    <row r="231" spans="2:7">
+      <c r="B231" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C231" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F231" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="232" spans="2:7">
+      <c r="B232" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C232" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F232" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="233" spans="2:7">
+      <c r="B233" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C233" s="6"/>
+      <c r="F233" s="6"/>
+    </row>
+    <row r="234" spans="2:7">
+      <c r="B234" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C234" s="6"/>
+      <c r="D234" s="8"/>
+      <c r="F234" s="6"/>
+      <c r="G234" s="8"/>
+    </row>
+    <row r="235" spans="2:7">
+      <c r="B235" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D235" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G235" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="236" spans="2:7">
+      <c r="B236" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D236" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G236" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="237" spans="2:7">
+      <c r="B237" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D237" s="8"/>
+      <c r="G237" s="8"/>
+    </row>
+    <row r="238" spans="2:7">
+      <c r="B238" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8">
-      <c r="B12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="D238" s="8"/>
+      <c r="G238" s="8"/>
+    </row>
+    <row r="239" spans="2:7">
+      <c r="B239" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="B13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="2:8">
-      <c r="B14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="2:8">
-      <c r="B15" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8">
-      <c r="B16" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="6" t="s">
+    </row>
+    <row r="240" spans="2:7">
+      <c r="B240" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="7"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="8"/>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="B27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>38</v>
+      <c r="D240" s="5"/>
+      <c r="G240" s="5"/>
+    </row>
+    <row r="241" spans="4:7">
+      <c r="D241" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G241" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="242" spans="4:7">
+      <c r="D242" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G242" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/scheds.xlsx
+++ b/scheds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="87">
   <si>
     <t>SS191</t>
   </si>
@@ -247,19 +247,34 @@
     <t>BUSINLA</t>
   </si>
   <si>
+    <t>SCSPROJ</t>
+  </si>
+  <si>
+    <t>01:00 AM - 03:00 AM</t>
+  </si>
+  <si>
     <t>ECONTAX</t>
   </si>
   <si>
-    <t>SCSPROJ</t>
-  </si>
-  <si>
-    <t>01:00 AM - 03:00 AM</t>
+    <t>MI181</t>
   </si>
   <si>
     <t>AJ Antonio</t>
   </si>
   <si>
     <t>Aaron Gardon Jr., Randreb Bance</t>
+  </si>
+  <si>
+    <t>IOTSYST</t>
+  </si>
+  <si>
+    <t>CLDCOMP</t>
+  </si>
+  <si>
+    <t>MCSPROJ</t>
+  </si>
+  <si>
+    <t>RIZLIFE</t>
   </si>
 </sst>
 </file>
@@ -655,7 +670,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:H242"/>
+  <dimension ref="B4:H240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2338,7 +2353,9 @@
         <v>21</v>
       </c>
       <c r="C200" s="6"/>
+      <c r="D200" s="8"/>
       <c r="F200" s="6"/>
+      <c r="G200" s="8"/>
     </row>
     <row r="201" spans="2:7">
       <c r="B201" s="3" t="s">
@@ -2347,8 +2364,14 @@
       <c r="C201" s="6" t="s">
         <v>76</v>
       </c>
+      <c r="D201" s="8" t="s">
+        <v>77</v>
+      </c>
       <c r="F201" s="6" t="s">
         <v>76</v>
+      </c>
+      <c r="G201" s="8" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="202" spans="2:7">
@@ -2358,8 +2381,14 @@
       <c r="C202" s="6" t="s">
         <v>41</v>
       </c>
+      <c r="D202" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="F202" s="6" t="s">
         <v>41</v>
+      </c>
+      <c r="G202" s="8" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="203" spans="2:7">
@@ -2367,36 +2396,38 @@
         <v>24</v>
       </c>
       <c r="C203" s="6"/>
+      <c r="D203" s="8"/>
       <c r="F203" s="6"/>
+      <c r="G203" s="8"/>
     </row>
     <row r="204" spans="2:7">
       <c r="B204" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C204" s="6"/>
-      <c r="D204" s="8"/>
+      <c r="D204" s="5"/>
       <c r="F204" s="6"/>
-      <c r="G204" s="8"/>
+      <c r="G204" s="5"/>
     </row>
     <row r="205" spans="2:7">
       <c r="B205" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D205" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="G205" s="8" t="s">
-        <v>77</v>
+      <c r="D205" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G205" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="206" spans="2:7">
       <c r="B206" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D206" s="8" t="s">
+      <c r="D206" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G206" s="8" t="s">
+      <c r="G206" s="5" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2404,15 +2435,15 @@
       <c r="B207" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D207" s="8"/>
-      <c r="G207" s="8"/>
+      <c r="D207" s="5"/>
+      <c r="G207" s="5"/>
     </row>
     <row r="208" spans="2:7">
       <c r="B208" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D208" s="8"/>
-      <c r="G208" s="8"/>
+      <c r="D208" s="5"/>
+      <c r="G208" s="5"/>
     </row>
     <row r="209" spans="2:8">
       <c r="B209" s="3" t="s">
@@ -2423,34 +2454,16 @@
       <c r="B210" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D210" s="5"/>
-      <c r="G210" s="5"/>
-    </row>
-    <row r="211" spans="2:8">
-      <c r="D211" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G211" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="212" spans="2:8">
-      <c r="D212" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G212" s="5" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="214" spans="2:8">
       <c r="B214" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E214" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="215" spans="2:8">
@@ -2458,7 +2471,7 @@
         <v>50</v>
       </c>
       <c r="E215" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="217" spans="2:8">
@@ -2510,44 +2523,26 @@
       <c r="B223" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C223" s="4"/>
-      <c r="F223" s="4"/>
     </row>
     <row r="224" spans="2:8">
       <c r="B224" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C224" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F224" s="4" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="225" spans="2:7">
       <c r="B225" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C225" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F225" s="4" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="226" spans="2:7">
       <c r="B226" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C226" s="4"/>
-      <c r="F226" s="4"/>
     </row>
     <row r="227" spans="2:7">
       <c r="B227" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C227" s="4"/>
-      <c r="F227" s="4"/>
     </row>
     <row r="228" spans="2:7">
       <c r="B228" s="3" t="s">
@@ -2563,28 +2558,42 @@
       <c r="B230" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C230" s="6"/>
-      <c r="F230" s="6"/>
+      <c r="C230" s="4"/>
+      <c r="D230" s="8"/>
+      <c r="F230" s="4"/>
+      <c r="G230" s="8"/>
     </row>
     <row r="231" spans="2:7">
       <c r="B231" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C231" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F231" s="6" t="s">
-        <v>76</v>
+      <c r="C231" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D231" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F231" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G231" s="8" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="232" spans="2:7">
       <c r="B232" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C232" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F232" s="6" t="s">
+      <c r="C232" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D232" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F232" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G232" s="8" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2592,8 +2601,10 @@
       <c r="B233" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C233" s="6"/>
-      <c r="F233" s="6"/>
+      <c r="C233" s="4"/>
+      <c r="D233" s="8"/>
+      <c r="F233" s="4"/>
+      <c r="G233" s="8"/>
     </row>
     <row r="234" spans="2:7">
       <c r="B234" s="3" t="s">
@@ -2601,6 +2612,7 @@
       </c>
       <c r="C234" s="6"/>
       <c r="D234" s="8"/>
+      <c r="E234" s="5"/>
       <c r="F234" s="6"/>
       <c r="G234" s="8"/>
     </row>
@@ -2608,21 +2620,27 @@
       <c r="B235" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D235" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="G235" s="8" t="s">
-        <v>77</v>
+      <c r="C235" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E235" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F235" s="6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="236" spans="2:7">
       <c r="B236" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D236" s="8" t="s">
+      <c r="C236" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G236" s="8" t="s">
+      <c r="E236" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F236" s="6" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2630,15 +2648,17 @@
       <c r="B237" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D237" s="8"/>
-      <c r="G237" s="8"/>
+      <c r="C237" s="6"/>
+      <c r="E237" s="5"/>
+      <c r="F237" s="6"/>
     </row>
     <row r="238" spans="2:7">
       <c r="B238" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D238" s="8"/>
-      <c r="G238" s="8"/>
+      <c r="C238" s="6"/>
+      <c r="E238" s="5"/>
+      <c r="F238" s="6"/>
     </row>
     <row r="239" spans="2:7">
       <c r="B239" s="3" t="s">
@@ -2648,24 +2668,6 @@
     <row r="240" spans="2:7">
       <c r="B240" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="D240" s="5"/>
-      <c r="G240" s="5"/>
-    </row>
-    <row r="241" spans="4:7">
-      <c r="D241" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G241" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="242" spans="4:7">
-      <c r="D242" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G242" s="5" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
